--- a/项目/单臂炸-吴启宝/RR081D-半自动单臂炸直接地址协议V1.xlsx
+++ b/项目/单臂炸-吴启宝/RR081D-半自动单臂炸直接地址协议V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="协议（炸）" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="234">
   <si>
     <t>序号</t>
   </si>
@@ -702,25 +702,49 @@
     <t>寄存器地址</t>
   </si>
   <si>
+    <t>head</t>
+  </si>
+  <si>
     <t>D2402 =2 （写</t>
   </si>
   <si>
+    <t>qt1</t>
+  </si>
+  <si>
     <t xml:space="preserve">D2403  </t>
   </si>
   <si>
+    <t>qt2</t>
+  </si>
+  <si>
     <t xml:space="preserve">D2404  </t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>ID=1 炸蓝1，ID=2 炸蓝2，ID=3 炸蓝3....炸篮16=16（值=99  是复炸）</t>
   </si>
   <si>
     <t>D2405（写</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>D2406（写</t>
   </si>
   <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>taskid</t>
+  </si>
+  <si>
     <t>D2408（写</t>
+  </si>
+  <si>
+    <t>basket</t>
   </si>
   <si>
     <t>ID=1 炸蓝1，ID=2 炸蓝2，ID=3 炸蓝3....炸篮16=16</t>
@@ -758,9 +782,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -779,9 +803,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,9 +853,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,30 +893,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,21 +904,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,15 +932,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -916,10 +939,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -992,7 +1016,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,25 +1082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,25 +1106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,19 +1130,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,67 +1178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,36 +1233,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1266,6 +1260,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1276,15 +1300,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,16 +1321,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1324,137 +1348,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1467,7 +1491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1928,447 +1951,447 @@
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="19" customFormat="1" spans="1:4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
+    <row r="2" s="18" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="19" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+    <row r="4" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
-      <c r="A7" s="17">
+    <row r="5" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
-      <c r="A8" s="17">
+    <row r="8" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
-      <c r="A9" s="17">
+    <row r="9" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" s="19" customFormat="1" ht="24.3" customHeight="1" spans="1:7">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="G12" s="19" t="s">
+    <row r="10" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" s="18" customFormat="1" ht="24.3" customHeight="1" spans="1:7">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="G12" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="G13" s="19" t="s">
+    <row r="13" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="G13" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="G14" s="19" t="s">
+    <row r="14" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="G14" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="G15" s="19" t="s">
+    <row r="15" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="G15" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="G16" s="19" t="s">
+    <row r="16" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="G16" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" s="19" customFormat="1" ht="24.3" customHeight="1" spans="1:5">
+    <row r="17" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" s="18" customFormat="1" ht="24.3" customHeight="1" spans="1:5">
       <c r="A18" s="4"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" s="19" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="30" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-    </row>
-    <row r="31" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" s="19" customFormat="1" ht="24.3" customHeight="1" spans="1:5">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" s="18" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" s="18" customFormat="1" ht="24.3" customHeight="1" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A37" s="17">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A37" s="16">
         <v>5</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
-      <c r="A38" s="17">
+    <row r="38" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A38" s="16">
         <v>6</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="31"/>
-    </row>
-    <row r="39" s="19" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" s="18" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
       <c r="A39" s="4"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-    </row>
-    <row r="40" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-    </row>
-    <row r="42" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" s="19" customFormat="1" ht="24.3" customHeight="1" spans="1:5">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+    </row>
+    <row r="41" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" s="18" customFormat="1" ht="24.3" customHeight="1" spans="1:5">
       <c r="A45" s="4"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" s="22" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-    </row>
-    <row r="48" s="22" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" s="22" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
-    </row>
-    <row r="51" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-    </row>
-    <row r="52" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
-    </row>
-    <row r="53" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
-    </row>
-    <row r="54" s="19" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-    </row>
-    <row r="55" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-    </row>
-    <row r="56" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-    </row>
-    <row r="57" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-    </row>
-    <row r="58" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-    </row>
-    <row r="59" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" s="19" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" s="18" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+    </row>
+    <row r="55" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+    </row>
+    <row r="56" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+    </row>
+    <row r="57" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+    </row>
+    <row r="58" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" s="20" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" s="18" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>28</v>
       </c>
@@ -2376,291 +2399,291 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:6">
-      <c r="A61" s="7">
+    <row r="61" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:6">
+      <c r="A61" s="6">
         <v>1</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" s="22" customFormat="1" ht="19.95" customHeight="1" spans="1:6">
-      <c r="A62" s="9">
+    <row r="62" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:6">
+      <c r="A62" s="8">
         <v>2</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-    </row>
-    <row r="65" s="23" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
-      <c r="A65" s="13">
+    <row r="63" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" s="22" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A65" s="12">
         <v>5</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E65" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" s="22" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
-      <c r="A66" s="9">
+    <row r="66" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A66" s="8">
         <v>6</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" s="22" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A67" s="9">
+    <row r="67" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A67" s="8">
         <v>7</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" s="22" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
-      <c r="A68" s="9">
+    <row r="68" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A68" s="8">
         <v>8</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" s="22" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
-      <c r="A69" s="9">
+    <row r="69" s="21" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A69" s="8">
         <v>9</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" s="19" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-    </row>
-    <row r="71" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-    </row>
-    <row r="72" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="33"/>
-    </row>
-    <row r="73" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
-    </row>
-    <row r="74" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-    </row>
-    <row r="75" s="19" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
-    </row>
-    <row r="76" s="19" customFormat="1" ht="16.2" customHeight="1"/>
+    <row r="70" s="18" customFormat="1" ht="24.3" customHeight="1" spans="1:4">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+    </row>
+    <row r="71" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+    </row>
+    <row r="72" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+    </row>
+    <row r="73" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+    </row>
+    <row r="74" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+    </row>
+    <row r="75" s="18" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+    </row>
+    <row r="76" s="18" customFormat="1" ht="16.2" customHeight="1"/>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
     </row>
     <row r="80" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A80" s="34">
+      <c r="A80" s="33">
         <v>1</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="34" t="s">
+      <c r="D80" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A81" s="34">
+      <c r="A81" s="33">
         <v>2</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="34" t="s">
+      <c r="D81" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="82" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
     </row>
     <row r="83" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
     </row>
     <row r="84" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A84" s="34">
+      <c r="A84" s="33">
         <v>5</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="85" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A85" s="34">
+      <c r="A85" s="33">
         <v>6</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="86" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="37"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="36"/>
     </row>
     <row r="87" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
     </row>
     <row r="89" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
     </row>
     <row r="90" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
     </row>
     <row r="91" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
     </row>
     <row r="92" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1"/>
@@ -2744,181 +2767,181 @@
       <c r="D98" s="1"/>
     </row>
     <row r="99" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
     </row>
     <row r="100" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
     </row>
     <row r="101" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A101" s="38"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
     </row>
     <row r="102" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A102" s="38"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="38"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="37"/>
     </row>
     <row r="103" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="40"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="39"/>
     </row>
     <row r="104" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A104" s="38"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
     </row>
     <row r="106" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
     </row>
     <row r="107" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A107" s="32"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
     </row>
     <row r="108" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A108" s="32"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
     </row>
     <row r="109" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A109" s="32"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
+      <c r="A109" s="31"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
     </row>
     <row r="110" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="33"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="41"/>
+      <c r="A110" s="31"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="40"/>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="41"/>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-    </row>
-    <row r="112" s="24" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A112" s="42"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
-    </row>
-    <row r="113" s="24" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A113" s="42"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
-    </row>
-    <row r="114" s="24" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A114" s="42"/>
-      <c r="B114" s="42"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="42"/>
-    </row>
-    <row r="115" s="24" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A115" s="42"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="42"/>
-    </row>
-    <row r="116" s="24" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A116" s="42"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="43"/>
-    </row>
-    <row r="117" s="25" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A117" s="44"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="45"/>
-    </row>
-    <row r="118" s="25" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A118" s="44"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="44"/>
-    </row>
-    <row r="119" s="25" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A119" s="44"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="44"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="40"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+    </row>
+    <row r="112" s="23" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A112" s="41"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+    </row>
+    <row r="113" s="23" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A113" s="41"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+    </row>
+    <row r="114" s="23" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A114" s="41"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+    </row>
+    <row r="115" s="23" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A115" s="41"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
+    </row>
+    <row r="116" s="23" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A116" s="41"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="42"/>
+    </row>
+    <row r="117" s="24" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="44"/>
+    </row>
+    <row r="118" s="24" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+    </row>
+    <row r="119" s="24" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="28"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-    </row>
-    <row r="121" s="26" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A121" s="32"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-    </row>
-    <row r="122" s="26" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-    </row>
-    <row r="123" s="26" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-    </row>
-    <row r="124" s="26" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-    </row>
-    <row r="125" s="26" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A125" s="32"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+    </row>
+    <row r="121" s="25" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A121" s="31"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+    </row>
+    <row r="122" s="25" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A122" s="31"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+    </row>
+    <row r="123" s="25" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A123" s="31"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+    </row>
+    <row r="124" s="25" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A124" s="31"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+    </row>
+    <row r="125" s="25" customFormat="1" ht="19.95" customHeight="1" spans="1:4">
+      <c r="A125" s="31"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1"/>
@@ -2927,150 +2950,150 @@
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
     </row>
     <row r="128" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A128" s="46">
+      <c r="A128" s="45">
         <v>1</v>
       </c>
-      <c r="B128" s="46" t="s">
+      <c r="B128" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C128" s="46" t="s">
+      <c r="C128" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D128" s="46" t="s">
+      <c r="D128" s="45" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="129" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A129" s="46">
+      <c r="A129" s="45">
         <v>2</v>
       </c>
-      <c r="B129" s="46" t="s">
+      <c r="B129" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C129" s="46" t="s">
+      <c r="C129" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D129" s="46" t="s">
+      <c r="D129" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="130" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A130" s="46">
+      <c r="A130" s="45">
         <v>3</v>
       </c>
-      <c r="B130" s="46" t="s">
+      <c r="B130" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C130" s="46" t="s">
+      <c r="C130" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D130" s="46" t="s">
+      <c r="D130" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="131" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A131" s="46">
+      <c r="A131" s="45">
         <v>4</v>
       </c>
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C131" s="46" t="s">
+      <c r="C131" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D131" s="46" t="s">
+      <c r="D131" s="45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="132" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A132" s="46">
+      <c r="A132" s="45">
         <v>5</v>
       </c>
-      <c r="B132" s="46" t="s">
+      <c r="B132" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C132" s="46" t="s">
+      <c r="C132" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="46" t="s">
+      <c r="D132" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="133" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A133" s="46"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="46"/>
+      <c r="A133" s="45"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="45"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="28" t="s">
+      <c r="A134" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
     </row>
     <row r="135" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A135" s="29">
+      <c r="A135" s="28">
         <v>1</v>
       </c>
-      <c r="B135" s="29" t="s">
+      <c r="B135" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C135" s="29" t="s">
+      <c r="C135" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D135" s="29" t="s">
+      <c r="D135" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="136" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A136" s="29">
+      <c r="A136" s="28">
         <v>2</v>
       </c>
-      <c r="B136" s="29" t="s">
+      <c r="B136" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C136" s="29" t="s">
+      <c r="C136" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D136" s="29" t="s">
+      <c r="D136" s="28" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="137" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A137" s="29">
+      <c r="A137" s="28">
         <v>3</v>
       </c>
-      <c r="B137" s="29" t="s">
+      <c r="B137" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C137" s="29" t="s">
+      <c r="C137" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D137" s="29" t="s">
+      <c r="D137" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="138" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A138" s="29">
+      <c r="A138" s="28">
         <v>4</v>
       </c>
-      <c r="B138" s="29" t="s">
+      <c r="B138" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C138" s="29" t="s">
+      <c r="C138" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D138" s="29" t="s">
+      <c r="D138" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3093,100 +3116,100 @@
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="28"/>
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
+      <c r="A142" s="27"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="27"/>
     </row>
     <row r="143" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A143" s="46"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
+      <c r="A143" s="45"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
     </row>
     <row r="144" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A144" s="46"/>
-      <c r="B144" s="46"/>
-      <c r="C144" s="46"/>
-      <c r="D144" s="46"/>
+      <c r="A144" s="45"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
     </row>
     <row r="145" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A145" s="46"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="45"/>
     </row>
     <row r="146" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A146" s="46"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="46"/>
-      <c r="D146" s="46"/>
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
     </row>
     <row r="147" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A147" s="46"/>
-      <c r="B147" s="46"/>
-      <c r="C147" s="46"/>
-      <c r="D147" s="47"/>
+      <c r="A147" s="45"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="46"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="46"/>
-      <c r="B148" s="46"/>
-      <c r="C148" s="46"/>
-      <c r="D148" s="46"/>
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
     </row>
     <row r="150" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A150" s="29"/>
-      <c r="B150" s="29"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
     </row>
     <row r="151" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A151" s="29"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
     </row>
     <row r="152" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
     </row>
     <row r="153" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A153" s="29"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
+      <c r="A153" s="28"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
     </row>
     <row r="154" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A154" s="29"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
+      <c r="A154" s="28"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
     </row>
     <row r="155" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A155" s="29"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
+      <c r="A155" s="28"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
     </row>
     <row r="156" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A156" s="29"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
     </row>
     <row r="157" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A157" s="29"/>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1"/>
@@ -3195,206 +3218,206 @@
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="28" t="s">
+      <c r="A159" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B159" s="28"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
     </row>
     <row r="160" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A160" s="46">
+      <c r="A160" s="45">
         <v>1</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C160" s="46" t="s">
+      <c r="C160" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D160" s="46" t="s">
+      <c r="D160" s="45" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="161" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A161" s="46">
+      <c r="A161" s="45">
         <v>2</v>
       </c>
-      <c r="B161" s="46" t="s">
+      <c r="B161" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C161" s="46" t="s">
+      <c r="C161" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D161" s="46" t="s">
+      <c r="D161" s="45" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="162" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A162" s="46">
+      <c r="A162" s="45">
         <v>3</v>
       </c>
-      <c r="B162" s="46" t="s">
+      <c r="B162" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C162" s="46" t="s">
+      <c r="C162" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D162" s="46" t="s">
+      <c r="D162" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="163" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A163" s="46">
+      <c r="A163" s="45">
         <v>4</v>
       </c>
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C163" s="46" t="s">
+      <c r="C163" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D163" s="46" t="s">
+      <c r="D163" s="45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="164" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A164" s="46">
+      <c r="A164" s="45">
         <v>5</v>
       </c>
-      <c r="B164" s="46" t="s">
+      <c r="B164" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C164" s="46" t="s">
+      <c r="C164" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D164" s="46" t="s">
+      <c r="D164" s="45" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="165" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A165" s="46">
+      <c r="A165" s="45">
         <v>6</v>
       </c>
-      <c r="B165" s="46" t="s">
+      <c r="B165" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C165" s="46" t="s">
+      <c r="C165" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D165" s="46" t="s">
+      <c r="D165" s="45" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="166" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A166" s="46">
+      <c r="A166" s="45">
         <v>7</v>
       </c>
-      <c r="B166" s="46" t="s">
+      <c r="B166" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C166" s="46" t="s">
+      <c r="C166" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="46" t="s">
+      <c r="D166" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="167" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A167" s="46">
+      <c r="A167" s="45">
         <v>8</v>
       </c>
-      <c r="B167" s="46" t="s">
+      <c r="B167" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="46" t="s">
+      <c r="C167" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="46" t="s">
+      <c r="D167" s="45" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="168" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A168" s="46">
+      <c r="A168" s="45">
         <v>9</v>
       </c>
-      <c r="B168" s="46" t="s">
+      <c r="B168" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C168" s="46" t="s">
+      <c r="C168" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="46" t="s">
+      <c r="D168" s="45" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="169" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A169" s="46"/>
-      <c r="B169" s="46"/>
-      <c r="C169" s="46"/>
-      <c r="D169" s="46"/>
+      <c r="A169" s="45"/>
+      <c r="B169" s="45"/>
+      <c r="C169" s="45"/>
+      <c r="D169" s="45"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="28" t="s">
+      <c r="A170" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
     </row>
     <row r="171" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A171" s="29">
+      <c r="A171" s="28">
         <v>1</v>
       </c>
-      <c r="B171" s="29" t="s">
+      <c r="B171" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C171" s="29" t="s">
+      <c r="C171" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D171" s="29" t="s">
+      <c r="D171" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="172" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A172" s="29">
+      <c r="A172" s="28">
         <v>2</v>
       </c>
-      <c r="B172" s="29" t="s">
+      <c r="B172" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C172" s="29" t="s">
+      <c r="C172" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D172" s="29" t="s">
+      <c r="D172" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="173" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A173" s="29">
+      <c r="A173" s="28">
         <v>3</v>
       </c>
-      <c r="B173" s="29" t="s">
+      <c r="B173" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C173" s="29" t="s">
+      <c r="C173" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D173" s="29" t="s">
+      <c r="D173" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="174" ht="19.95" customHeight="1" spans="1:4">
-      <c r="A174" s="29">
+      <c r="A174" s="28">
         <v>4</v>
       </c>
-      <c r="B174" s="29" t="s">
+      <c r="B174" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C174" s="29" t="s">
+      <c r="C174" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D174" s="29" t="s">
+      <c r="D174" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3402,181 +3425,181 @@
       <c r="A176" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="34">
+      <c r="A177" s="33">
         <v>1</v>
       </c>
-      <c r="B177" s="34" t="s">
+      <c r="B177" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C177" s="34" t="s">
+      <c r="C177" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D177" s="34" t="s">
+      <c r="D177" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="34">
+      <c r="A178" s="33">
         <v>2</v>
       </c>
-      <c r="B178" s="34" t="s">
+      <c r="B178" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C178" s="36" t="s">
+      <c r="C178" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D178" s="36" t="s">
+      <c r="D178" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="34">
+      <c r="A179" s="33">
         <v>3</v>
       </c>
-      <c r="B179" s="34" t="s">
+      <c r="B179" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C179" s="34" t="s">
+      <c r="C179" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D179" s="34" t="s">
+      <c r="D179" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="34">
+      <c r="A180" s="33">
         <v>4</v>
       </c>
-      <c r="B180" s="34" t="s">
+      <c r="B180" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C180" s="34" t="s">
+      <c r="C180" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D180" s="34" t="s">
+      <c r="D180" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="34">
+      <c r="A181" s="33">
         <v>5</v>
       </c>
-      <c r="B181" s="34" t="s">
+      <c r="B181" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C181" s="34" t="s">
+      <c r="C181" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D181" s="35" t="s">
+      <c r="D181" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="34">
+      <c r="A182" s="33">
         <v>6</v>
       </c>
-      <c r="B182" s="36" t="s">
+      <c r="B182" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C182" s="34" t="s">
+      <c r="C182" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="35" t="s">
+      <c r="D182" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="34"/>
-      <c r="B183" s="34"/>
-      <c r="C183" s="34"/>
-      <c r="D183" s="37"/>
+      <c r="A183" s="33"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="36"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="34"/>
-      <c r="B184" s="34"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="34"/>
+      <c r="A184" s="33"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="28" t="s">
+      <c r="A185" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B185" s="28"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="29">
+      <c r="A186" s="28">
         <v>1</v>
       </c>
-      <c r="B186" s="29" t="s">
+      <c r="B186" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C186" s="29" t="s">
+      <c r="C186" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D186" s="29" t="s">
+      <c r="D186" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="29">
+      <c r="A187" s="28">
         <v>2</v>
       </c>
-      <c r="B187" s="29" t="s">
+      <c r="B187" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C187" s="29" t="s">
+      <c r="C187" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D187" s="30" t="s">
+      <c r="D187" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="29">
+      <c r="A188" s="28">
         <v>3</v>
       </c>
-      <c r="B188" s="29" t="s">
+      <c r="B188" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C188" s="29" t="s">
+      <c r="C188" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D188" s="29" t="s">
+      <c r="D188" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="29">
+      <c r="A189" s="28">
         <v>4</v>
       </c>
-      <c r="B189" s="29" t="s">
+      <c r="B189" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C189" s="29" t="s">
+      <c r="C189" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D189" s="29" t="s">
+      <c r="D189" s="28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="190" s="27" customFormat="1" spans="1:4">
-      <c r="A190" s="48">
+    <row r="190" s="26" customFormat="1" spans="1:4">
+      <c r="A190" s="47">
         <v>5</v>
       </c>
-      <c r="B190" s="48" t="s">
+      <c r="B190" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C190" s="48" t="s">
+      <c r="C190" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="48" t="s">
+      <c r="D190" s="47" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3595,156 +3618,156 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="38">
+      <c r="A193" s="37">
         <v>1</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C193" s="38" t="s">
+      <c r="C193" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D193" s="38" t="s">
+      <c r="D193" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="38">
+      <c r="A194" s="37">
         <v>2</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C194" s="49" t="s">
+      <c r="C194" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D194" s="49" t="s">
+      <c r="D194" s="48" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="38">
+      <c r="A195" s="37">
         <v>3</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C195" s="38" t="s">
+      <c r="C195" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D195" s="38" t="s">
+      <c r="D195" s="37" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="38">
+      <c r="A196" s="37">
         <v>4</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C196" s="38" t="s">
+      <c r="C196" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D196" s="38" t="s">
+      <c r="D196" s="37" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="38">
+      <c r="A197" s="37">
         <v>5</v>
       </c>
-      <c r="B197" s="49" t="s">
+      <c r="B197" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C197" s="38" t="s">
+      <c r="C197" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D197" s="50" t="s">
+      <c r="D197" s="49" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="38"/>
-      <c r="B198" s="38"/>
-      <c r="C198" s="38"/>
-      <c r="D198" s="38"/>
+      <c r="A198" s="37"/>
+      <c r="B198" s="37"/>
+      <c r="C198" s="37"/>
+      <c r="D198" s="37"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="28" t="s">
+      <c r="A199" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B199" s="28"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="28"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="27"/>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="32">
+      <c r="A200" s="31">
         <v>1</v>
       </c>
-      <c r="B200" s="32" t="s">
+      <c r="B200" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C200" s="32" t="s">
+      <c r="C200" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D200" s="32" t="s">
+      <c r="D200" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="32">
+      <c r="A201" s="31">
         <v>2</v>
       </c>
-      <c r="B201" s="32" t="s">
+      <c r="B201" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C201" s="33" t="s">
+      <c r="C201" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D201" s="32" t="s">
+      <c r="D201" s="31" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="32">
+      <c r="A202" s="31">
         <v>3</v>
       </c>
-      <c r="B202" s="32" t="s">
+      <c r="B202" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C202" s="32" t="s">
+      <c r="C202" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D202" s="32" t="s">
+      <c r="D202" s="31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="32">
+      <c r="A203" s="31">
         <v>4</v>
       </c>
-      <c r="B203" s="32" t="s">
+      <c r="B203" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C203" s="33" t="s">
+      <c r="C203" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D203" s="32" t="s">
+      <c r="D203" s="31" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="32">
+      <c r="A204" s="31">
         <v>5</v>
       </c>
-      <c r="B204" s="32" t="s">
+      <c r="B204" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C204" s="32" t="s">
+      <c r="C204" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D204" s="33" t="s">
+      <c r="D204" s="32" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3786,14 +3809,14 @@
   <sheetPr/>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="19.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="68.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
@@ -3826,22 +3849,22 @@
       <c r="H1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3867,22 +3890,22 @@
       <c r="H2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3908,20 +3931,20 @@
       <c r="H3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>2</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3947,7 +3970,7 @@
       <c r="H4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>3</v>
       </c>
       <c r="K4" s="1"/>
@@ -3974,7 +3997,7 @@
       <c r="H5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>4</v>
       </c>
       <c r="K5" s="1"/>
@@ -4001,7 +4024,7 @@
       <c r="H6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>5</v>
       </c>
       <c r="K6" s="1"/>
@@ -4028,7 +4051,7 @@
       <c r="H7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>6</v>
       </c>
       <c r="K7" s="1"/>
@@ -4055,7 +4078,7 @@
       <c r="H8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>11</v>
       </c>
       <c r="K8" s="1"/>
@@ -4082,7 +4105,7 @@
       <c r="H9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>12</v>
       </c>
       <c r="K9" s="1"/>
@@ -4109,7 +4132,7 @@
       <c r="H10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>13</v>
       </c>
       <c r="K10" s="1"/>
@@ -4136,7 +4159,7 @@
       <c r="H11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>14</v>
       </c>
       <c r="K11" s="1"/>
@@ -4284,267 +4307,273 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>2</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="E23" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+        <v>212</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+        <v>214</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>5</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="13">
-        <v>2</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="C26" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>6</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="10">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="E27" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>7</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="10">
-        <v>2</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>8</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="10">
-        <v>2</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="E29" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>9</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="10">
-        <v>2</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="6:7">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="6:7">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="6:7">
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="15" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="14" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="B36" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="8">
         <v>2</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>222</v>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="15"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>5</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>6</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>7</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>8</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>9</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="3:4">
@@ -4552,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="3:4">
@@ -4560,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/项目/单臂炸-吴启宝/RR081D-半自动单臂炸直接地址协议V1.xlsx
+++ b/项目/单臂炸-吴启宝/RR081D-半自动单臂炸直接地址协议V1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="235">
   <si>
     <t>序号</t>
   </si>
@@ -702,6 +702,9 @@
     <t>寄存器地址</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
     <t>head</t>
   </si>
   <si>
@@ -782,10 +785,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -804,7 +807,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,6 +842,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -826,21 +852,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,23 +867,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,9 +889,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,41 +942,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1016,7 +1019,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,61 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,13 +1091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,13 +1121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,19 +1145,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,13 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,16 +1237,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,21 +1267,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,6 +1286,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1303,43 +1333,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1348,133 +1351,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3809,22 +3812,24 @@
   <sheetPr/>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="19.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="68.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.9444444444444" customWidth="1"/>
+    <col min="5" max="5" width="31.9722222222222" customWidth="1"/>
     <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="28.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="19.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="19.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="24.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="42.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="41.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="14.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="8.77777777777778" customWidth="1"/>
+    <col min="14" max="14" width="78.0740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4318,7 +4323,9 @@
       <c r="E22" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
@@ -4329,13 +4336,13 @@
         <v>33</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -4344,11 +4351,11 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -4357,11 +4364,11 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -4374,13 +4381,13 @@
         <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -4393,13 +4400,13 @@
         <v>40</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -4412,7 +4419,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>45</v>
@@ -4429,13 +4436,13 @@
         <v>46</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -4448,13 +4455,13 @@
         <v>49</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -4473,7 +4480,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -4494,13 +4501,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C36" s="8">
         <v>2</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>36</v>
@@ -4510,13 +4517,13 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4573,7 +4580,7 @@
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="3:4">
@@ -4581,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="3:4">
@@ -4589,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
